--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-199720.7383688112</v>
+        <v>-161917.2147855935</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17367124.05617157</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484444</v>
+        <v>492028.9342484455</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8833767.412536884</v>
+        <v>8871601.377370264</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>322.649295062619</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -725,7 +725,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>269.6877385375852</v>
       </c>
     </row>
     <row r="3">
@@ -823,10 +823,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -835,7 +835,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>81.823657800638</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>142.0184881503127</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>249.6137623779653</v>
+        <v>347.203406430848</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1060,13 +1060,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>252.3518271637072</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1133,22 +1133,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>125.2888951379506</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>395.7783276032239</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>137.8834167598887</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>156.7654874397707</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>18.22772027659214</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1433,10 +1433,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>292.8298265777491</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
-        <v>240.2737862279051</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1658,10 +1658,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>175.8847260613643</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>206.4855017772222</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T16" t="n">
-        <v>153.2006427344292</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1904,7 +1904,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>185.4229681497289</v>
+        <v>132.7957673084547</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2008,10 +2008,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117699</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>30.8054975737745</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2020,7 +2020,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>190.4707957071078</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2065,10 +2065,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>71.84692347866319</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2144,7 +2144,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>116.3391303360022</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>155.1461723647469</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2296,10 +2296,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>60.94899222869634</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2719,7 +2719,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>28.46824604904465</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T31" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934465</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724685</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>103.3456594571967</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724685</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.412621479132298</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>24.62703520776672</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934469</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.6806259663152</v>
+        <v>1378.118739920744</v>
       </c>
       <c r="C2" t="n">
-        <v>520.7722471151849</v>
+        <v>939.9762671041675</v>
       </c>
       <c r="D2" t="n">
-        <v>488.9028663300335</v>
+        <v>908.1068863190161</v>
       </c>
       <c r="E2" t="n">
-        <v>459.1685255287327</v>
+        <v>474.3321414773113</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>450.5051159269231</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>656.8099308587498</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>693.4601489336249</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>693.4601489336249</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>693.4601489336249</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1301.162795242188</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1908.865441550751</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2455.364227509345</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509345</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509345</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509345</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509345</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2092.747277443172</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2091.932226894609</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>2076.830167514324</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1804.418310405652</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.822568378122</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397443</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.1709577106445</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768568</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>1007.43192898542</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>677.8768222006586</v>
+        <v>1128.165445162068</v>
       </c>
       <c r="C4" t="n">
-        <v>505.3151106838835</v>
+        <v>955.6037336452931</v>
       </c>
       <c r="D4" t="n">
-        <v>339.4371178854062</v>
+        <v>789.7257408468158</v>
       </c>
       <c r="E4" t="n">
-        <v>339.4371178854062</v>
+        <v>619.9677370975531</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>443.2606830593094</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>277.669408085137</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755116</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>200.0427573423713</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>618.2526391103323</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1077.736506291245</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1519.99530944889</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1939.664558674671</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645013</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509345</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214717</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2274.705037512714</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2028.825591091169</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1750.392590344274</v>
       </c>
       <c r="V4" t="n">
-        <v>1614.533270685833</v>
+        <v>1463.437082214705</v>
       </c>
       <c r="W4" t="n">
-        <v>1342.506866272125</v>
+        <v>1463.437082214705</v>
       </c>
       <c r="X4" t="n">
-        <v>1097.115111605538</v>
+        <v>1463.437082214705</v>
       </c>
       <c r="Y4" t="n">
-        <v>869.6954409196458</v>
+        <v>1319.984063881055</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1571.10956023096</v>
+        <v>489.9592645846401</v>
       </c>
       <c r="C5" t="n">
-        <v>1318.974446717864</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D5" t="n">
-        <v>890.3927724551322</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1613.531556264254</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>1612.716505715692</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X5" t="n">
-        <v>1597.614446335406</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y5" t="n">
-        <v>1593.368726675464</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.6525504900546</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>605.0908389732796</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>439.2128461748023</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>439.2128461748023</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>262.5057921365585</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>269.215608100497</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1442.282594561521</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1196.890839894934</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>969.4711692090418</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.439462025635</v>
+        <v>565.2083903541807</v>
       </c>
       <c r="C8" t="n">
-        <v>938.2969892090584</v>
+        <v>531.106321578008</v>
       </c>
       <c r="D8" t="n">
-        <v>502.3872043835029</v>
+        <v>499.2369407928566</v>
       </c>
       <c r="E8" t="n">
-        <v>68.61245954179812</v>
+        <v>469.5025999915558</v>
       </c>
       <c r="F8" t="n">
-        <v>44.78543399140991</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>44.78543399140991</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>44.78543399140991</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>44.36864461854992</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>479.6233320714678</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>479.6233320714678</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>479.6233320714678</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>479.6233320714678</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>479.6233320714678</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>953.717403061289</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1502.779380215844</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2049.278166174439</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>2218.432230927496</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2218.432230927496</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2218.432230927496</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2218.432230927496</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2218.432230927496</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W8" t="n">
-        <v>2217.617180378933</v>
+        <v>1818.936547960124</v>
       </c>
       <c r="X8" t="n">
-        <v>2202.515120998648</v>
+        <v>1399.794084539435</v>
       </c>
       <c r="Y8" t="n">
-        <v>1802.739032510543</v>
+        <v>991.5079608390885</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>550.5403896098427</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>444.083928446485</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>348.9936395930383</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>254.873224919992</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>171.4893865361536</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>86.10429680233744</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>44.36864461854992</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>70.43231777900752</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>394.9906427452199</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>944.052619899775</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1049.696689370943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1590.435628003019</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1707.608406097359</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1644.152968545742</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1513.974324876343</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1337.637777876312</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1138.520259938311</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>953.197505671505</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>798.3300699103851</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>671.8442906896058</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1123.426805230431</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="C10" t="n">
-        <v>950.8650937136562</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="D10" t="n">
-        <v>784.9871009151789</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>615.2290971659162</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>438.5220431276724</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>272.9307681535</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>133.0285938438746</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>44.36864461854992</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>44.36864461854992</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>131.303535624854</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>549.513417392815</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1008.997284573728</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.256087731373</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1870.925336957154</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2218.432230927496</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2218.432230927496</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2218.432230927496</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2218.432230927496</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2218.432230927496</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2218.432230927496</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2060.083253715606</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1788.056849301898</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1542.66509463531</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1315.245423949418</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2518.050233702663</v>
+        <v>2252.656868168565</v>
       </c>
       <c r="C11" t="n">
-        <v>2079.907760886087</v>
+        <v>1814.514395351989</v>
       </c>
       <c r="D11" t="n">
-        <v>1643.997976060531</v>
+        <v>1378.604610526433</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.223231218826</v>
+        <v>944.8298656847282</v>
       </c>
       <c r="F11" t="n">
-        <v>782.355801628034</v>
+        <v>516.962436093936</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9579702512979</v>
+        <v>115.5646047171995</v>
       </c>
       <c r="H11" t="n">
-        <v>91.82781569451414</v>
+        <v>97.15276605397513</v>
       </c>
       <c r="I11" t="n">
-        <v>91.41102632165415</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J11" t="n">
-        <v>91.41102632165415</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>258.3692490926251</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1333.429215345484</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2464.640666075954</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>3590.371649512402</v>
+        <v>3292.836108510709</v>
       </c>
       <c r="O11" t="n">
-        <v>4570.551316082708</v>
+        <v>3292.836108510709</v>
       </c>
       <c r="P11" t="n">
-        <v>4570.551316082708</v>
+        <v>4121.145983344105</v>
       </c>
       <c r="Q11" t="n">
-        <v>4570.551316082708</v>
+        <v>4667.6447693027</v>
       </c>
       <c r="R11" t="n">
-        <v>4570.551316082708</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="S11" t="n">
-        <v>4486.899442266545</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="T11" t="n">
-        <v>4266.832215139583</v>
+        <v>4533.079733112632</v>
       </c>
       <c r="U11" t="n">
-        <v>4007.6099124566</v>
+        <v>4273.857430429649</v>
       </c>
       <c r="V11" t="n">
-        <v>3644.992962390426</v>
+        <v>3911.240480363475</v>
       </c>
       <c r="W11" t="n">
-        <v>3240.13750780146</v>
+        <v>3506.385025774509</v>
       </c>
       <c r="X11" t="n">
-        <v>2944.349804187571</v>
+        <v>3087.24256235382</v>
       </c>
       <c r="Y11" t="n">
-        <v>2944.349804187571</v>
+        <v>2678.956438653473</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>597.582771312947</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C12" t="n">
-        <v>491.1263101495892</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D12" t="n">
-        <v>396.0360212961425</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E12" t="n">
-        <v>301.9156066230962</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F12" t="n">
-        <v>218.5317682392578</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G12" t="n">
-        <v>133.1466785054417</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>91.41102632165415</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I12" t="n">
-        <v>117.4746994821117</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J12" t="n">
-        <v>442.0330244483241</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1096.739071074048</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L12" t="n">
-        <v>1096.739071074048</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M12" t="n">
-        <v>1096.739071074048</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>1096.739071074048</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>1096.739071074048</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
-        <v>1096.739071074048</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q12" t="n">
-        <v>1637.478009706123</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R12" t="n">
-        <v>1754.650787800463</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S12" t="n">
-        <v>1691.195350248846</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T12" t="n">
-        <v>1561.016706579448</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U12" t="n">
-        <v>1384.680159579416</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V12" t="n">
-        <v>1185.562641641415</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W12" t="n">
-        <v>1000.239887374609</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>845.3724516134894</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y12" t="n">
-        <v>718.8866723927101</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.9070633985855</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C13" t="n">
-        <v>769.3453518818104</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D13" t="n">
-        <v>603.4673590833331</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>433.7093553340703</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F13" t="n">
-        <v>257.0023012958265</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>91.41102632165415</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H13" t="n">
-        <v>91.41102632165415</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I13" t="n">
-        <v>91.41102632165415</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J13" t="n">
-        <v>177.990711486344</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
-        <v>452.7491660574796</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>870.9590478254407</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1330.442915006354</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
-        <v>1772.701718163998</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O13" t="n">
-        <v>2192.37096738978</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P13" t="n">
-        <v>2539.877861360122</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q13" t="n">
-        <v>2708.070636224454</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2686.652814929826</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2686.652814929826</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T13" t="n">
-        <v>2443.952020760225</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U13" t="n">
-        <v>2165.51902001333</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V13" t="n">
-        <v>1878.56351188376</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W13" t="n">
-        <v>1606.537107470052</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X13" t="n">
-        <v>1361.145352803464</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.725682117573</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.744370297625</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.601897481048</v>
+        <v>2085.232711245547</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.692112655493</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.917367813788</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.0499382229957</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>385.6521068462596</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>96.52195228947592</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I14" t="n">
-        <v>96.10516291661592</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J14" t="n">
-        <v>531.3598503695339</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>1365.710142327712</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2440.770108580571</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2450.269818468499</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2450.269818468499</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3430.449485038805</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4258.759359872201</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4805.258145830796</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
-        <v>4805.258145830796</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S14" t="n">
-        <v>4721.606272014633</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T14" t="n">
-        <v>4543.944932558709</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="U14" t="n">
-        <v>4543.944932558709</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.327982492536</v>
+        <v>4181.958796257034</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.472527903569</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.33006448288</v>
+        <v>3357.960878247378</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.043940782533</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.2769079079087</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C15" t="n">
-        <v>495.820446744551</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D15" t="n">
-        <v>400.7301578911043</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E15" t="n">
-        <v>306.609743218058</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F15" t="n">
-        <v>223.2259048342196</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G15" t="n">
-        <v>137.8408151004035</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.10516291661592</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I15" t="n">
-        <v>122.1688360770735</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>446.7271610432859</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1101.43320766901</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.43320766901</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.43320766901</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.43320766901</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.43320766901</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S15" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.71084317441</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.374296174378</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W15" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X15" t="n">
-        <v>850.0665882084511</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.5808089876718</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.163323528497</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C16" t="n">
-        <v>1002.601612011722</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D16" t="n">
-        <v>836.723619213245</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E16" t="n">
-        <v>666.9656154639822</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F16" t="n">
-        <v>490.2585614257384</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
-        <v>324.6672864515661</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H16" t="n">
-        <v>184.7651121419406</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I16" t="n">
-        <v>96.10516291661592</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J16" t="n">
-        <v>182.6848480813058</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
-        <v>457.4433026524413</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>875.6531844204023</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.39585475896</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.571997955083</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.764772819416</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.764772819416</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2553.523404117413</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T16" t="n">
-        <v>2398.775280143242</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U16" t="n">
-        <v>2398.775280143242</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V16" t="n">
-        <v>2111.819772013672</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W16" t="n">
-        <v>1839.793367599964</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X16" t="n">
-        <v>1594.401612933376</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y16" t="n">
-        <v>1366.981942247485</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.327580924765</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.185108108188</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.275323282633</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E17" t="n">
-        <v>1214.500578440928</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>786.6331488501357</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G17" t="n">
-        <v>385.2353174733997</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>96.10516291661592</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I17" t="n">
-        <v>96.10516291661592</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J17" t="n">
-        <v>531.3598503695339</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>1365.710142327712</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2440.770108580571</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2450.269818468499</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2450.269818468499</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3430.449485038805</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4258.759359872201</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4805.258145830796</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
-        <v>4805.258145830796</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S17" t="n">
-        <v>4805.258145830796</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T17" t="n">
-        <v>4585.190918703835</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U17" t="n">
-        <v>4325.968616020851</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V17" t="n">
-        <v>3963.351665954678</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W17" t="n">
-        <v>3776.055738530708</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X17" t="n">
-        <v>3356.913275110019</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y17" t="n">
-        <v>2948.627151409672</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.2769079079087</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C18" t="n">
-        <v>495.820446744551</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D18" t="n">
-        <v>400.7301578911043</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E18" t="n">
-        <v>306.609743218058</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F18" t="n">
-        <v>223.2259048342196</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G18" t="n">
-        <v>137.8408151004035</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.10516291661592</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I18" t="n">
-        <v>122.1688360770735</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>446.7271610432859</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q18" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R18" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S18" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T18" t="n">
-        <v>1565.71084317441</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U18" t="n">
-        <v>1389.374296174378</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V18" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W18" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X18" t="n">
-        <v>850.0665882084511</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y18" t="n">
-        <v>723.5808089876718</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1086.503374303172</v>
+        <v>1030.203747470687</v>
       </c>
       <c r="C19" t="n">
-        <v>913.9416627863974</v>
+        <v>857.6420359539115</v>
       </c>
       <c r="D19" t="n">
-        <v>748.0636699879201</v>
+        <v>691.7640431554344</v>
       </c>
       <c r="E19" t="n">
-        <v>578.3056662386575</v>
+        <v>522.0060394061716</v>
       </c>
       <c r="F19" t="n">
-        <v>401.5986122004138</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G19" t="n">
-        <v>236.0073372262414</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H19" t="n">
-        <v>96.10516291661592</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I19" t="n">
-        <v>96.10516291661592</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J19" t="n">
-        <v>182.6848480813058</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
-        <v>457.4433026524413</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>875.6531844204023</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N19" t="n">
-        <v>1777.39585475896</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P19" t="n">
-        <v>2544.571997955083</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q19" t="n">
-        <v>2712.764772819416</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2712.764772819416</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S19" t="n">
-        <v>2553.523404117413</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T19" t="n">
-        <v>2361.12866097892</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U19" t="n">
-        <v>2082.695660232025</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V19" t="n">
-        <v>1795.740152102456</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W19" t="n">
-        <v>1523.713747688747</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X19" t="n">
-        <v>1278.32199302216</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="Y19" t="n">
-        <v>1278.32199302216</v>
+        <v>1222.022366189674</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.744370297625</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.601897481049</v>
+        <v>2084.815921872687</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.692112655493</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
-        <v>1214.917367813788</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>787.0499382229957</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G20" t="n">
-        <v>385.6521068462597</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>96.52195228947592</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I20" t="n">
-        <v>96.10516291661592</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J20" t="n">
-        <v>531.3598503695339</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
-        <v>1365.710142327712</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2440.770108580571</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2450.269818468499</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2450.269818468499</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3430.449485038805</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
-        <v>4258.759359872201</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q20" t="n">
-        <v>4805.258145830796</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R20" t="n">
-        <v>4805.258145830796</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S20" t="n">
-        <v>4721.606272014633</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="T20" t="n">
-        <v>4501.539044887671</v>
+        <v>4616.731606928796</v>
       </c>
       <c r="U20" t="n">
-        <v>4242.316742204688</v>
+        <v>4544.158956950348</v>
       </c>
       <c r="V20" t="n">
-        <v>3879.699792138515</v>
+        <v>4181.542006884174</v>
       </c>
       <c r="W20" t="n">
-        <v>3474.844337549548</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.330064482879</v>
+        <v>3357.544088874518</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.043940782532</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.2769079079087</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C21" t="n">
-        <v>495.820446744551</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D21" t="n">
-        <v>400.7301578911043</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E21" t="n">
-        <v>306.609743218058</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F21" t="n">
-        <v>223.2259048342196</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G21" t="n">
-        <v>137.8408151004035</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.10516291661592</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I21" t="n">
-        <v>122.1688360770735</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>446.7271610432859</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L21" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M21" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N21" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O21" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P21" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q21" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R21" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S21" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T21" t="n">
-        <v>1565.71084317441</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U21" t="n">
-        <v>1389.374296174378</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W21" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X21" t="n">
-        <v>850.0665882084511</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y21" t="n">
-        <v>723.5808089876718</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1077.625404747936</v>
+        <v>1010.202862318824</v>
       </c>
       <c r="C22" t="n">
-        <v>905.0636932311616</v>
+        <v>837.6411508020492</v>
       </c>
       <c r="D22" t="n">
-        <v>739.1857004326843</v>
+        <v>671.7631580035718</v>
       </c>
       <c r="E22" t="n">
-        <v>569.4276966834215</v>
+        <v>502.0051542543091</v>
       </c>
       <c r="F22" t="n">
-        <v>392.7206426451776</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="G22" t="n">
-        <v>236.0073372262414</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H22" t="n">
-        <v>96.10516291661592</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I22" t="n">
-        <v>96.10516291661592</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J22" t="n">
-        <v>182.6848480813058</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
-        <v>457.4433026524414</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>875.6531844204025</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N22" t="n">
-        <v>1777.39585475896</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O22" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P22" t="n">
-        <v>2544.571997955083</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q22" t="n">
-        <v>2712.764772819416</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2712.764772819416</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S22" t="n">
-        <v>2553.523404117412</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T22" t="n">
-        <v>2307.643957695867</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.210956948973</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.255448819403</v>
+        <v>1946.859310803999</v>
       </c>
       <c r="W22" t="n">
-        <v>1742.255448819403</v>
+        <v>1674.832906390291</v>
       </c>
       <c r="X22" t="n">
-        <v>1496.863694152815</v>
+        <v>1429.441151723703</v>
       </c>
       <c r="Y22" t="n">
-        <v>1269.444023466924</v>
+        <v>1202.021481037811</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477105</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309359</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D25" t="n">
         <v>614.3171730324586</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6181,7 +6181,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
         <v>1617.386921419177</v>
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477103</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716167</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731393</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>473.3149733731393</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>296.6079193348955</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>131.0166443607231</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130894</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.801834709349</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.995166752589</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066697</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2594.704009018976</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309359</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
         <v>444.5591692831957</v>
@@ -6862,7 +6862,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
         <v>1341.292728955479</v>
@@ -6914,7 +6914,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6941,43 +6941,43 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136697</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7117,7 +7117,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
         <v>2700.681281130895</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206711</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390331</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835857</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197256</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>532.8213911287357</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2354.19279167554</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2354.19279167554</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.19279167554</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245846</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079242</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037837</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387607</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936678</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080667</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>925.334784885684</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694961</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947931</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976694</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835853</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3422.411315910079</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4250.721190743476</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4797.21997670207</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387607</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856841</v>
+        <v>881.8088617745663</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694962</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206712</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.648111803011</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390332</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961503</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835866</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197261</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>102.6776296436405</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2442.231649339773</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3422.411315910079</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4250.721190743476</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4797.21997670207</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387607</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673522</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403415</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750117</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574027</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566214</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278743</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936675</v>
+        <v>639.1929661716165</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080663</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716797</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823633</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856844</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694962</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703678</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.8410568773362</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>37.02042229785366</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.47818213854612</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.4600735274589</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,22 +8374,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>478.8828999897185</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>554.6080577318739</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>554.6080577318739</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>106.7111812840086</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>87.81302121848896</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>168.6446694656273</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1142.637829020677</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>860.0355415814533</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158828</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>9.595666553462252</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>9.595666553462252</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>9.595666553462252</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,13 +10589,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10826,13 +10826,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497274</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497274</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>268.0111327346237</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>122.1212122087333</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
-        <v>3.146865729424178</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>41.98182879432743</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>50.14457787893105</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T16" t="n">
-        <v>90.22000922290006</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>215.3839318933481</v>
+        <v>268.0111327346223</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>144.1344859240868</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>52.94985625022153</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>184.7831561774901</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>298.6119084504802</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>8.789189859683759</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>223.1369608195775</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>110.0349065174846</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,10 +24886,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T31" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>139.592177662725</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>761731.1512307164</v>
+        <v>769506.5633520663</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>761731.1512307164</v>
+        <v>771708.3528768503</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>767076.7419632822</v>
+        <v>771708.3528768503</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>716303.849647046</v>
+        <v>746674.1677889731</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>743076.3850073724</v>
+        <v>746674.1677889732</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>743076.3850073721</v>
+        <v>746674.1677889732</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>743076.3850073721</v>
+        <v>746674.1677889732</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>778184.6709076994</v>
+        <v>778184.6709076995</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>789108.6625807793</v>
+        <v>778184.6709076995</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>789108.6625807793</v>
+        <v>778184.6709076995</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>789108.6625807793</v>
+        <v>778184.6709076997</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>201055.2449589031</v>
+        <v>201055.2449589032</v>
       </c>
       <c r="C2" t="n">
         <v>201055.2449589032</v>
@@ -26320,16 +26320,16 @@
         <v>201055.2449589032</v>
       </c>
       <c r="E2" t="n">
-        <v>181860.8084825456</v>
+        <v>189571.4617393786</v>
       </c>
       <c r="F2" t="n">
-        <v>188658.0285842603</v>
+        <v>189571.4617393786</v>
       </c>
       <c r="G2" t="n">
-        <v>188658.0285842603</v>
+        <v>189571.4617393786</v>
       </c>
       <c r="H2" t="n">
-        <v>188658.0285842602</v>
+        <v>189571.4617393786</v>
       </c>
       <c r="I2" t="n">
         <v>197571.5940515071</v>
@@ -26347,13 +26347,13 @@
         <v>197571.5940515071</v>
       </c>
       <c r="N2" t="n">
-        <v>201055.2449589032</v>
+        <v>197571.5940515071</v>
       </c>
       <c r="O2" t="n">
-        <v>201055.2449589031</v>
+        <v>197571.5940515071</v>
       </c>
       <c r="P2" t="n">
-        <v>201055.2449589032</v>
+        <v>197571.5940515071</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039036</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390602</v>
       </c>
       <c r="D3" t="n">
-        <v>40478.87875178198</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>175572.7530518682</v>
+        <v>161735.0752101142</v>
       </c>
       <c r="F3" t="n">
-        <v>16812.40227510018</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20461.54847120709</v>
+        <v>18364.71563283958</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856138</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784464</v>
       </c>
       <c r="L3" t="n">
-        <v>32980.84506379697</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>146539.3711242549</v>
+        <v>134989.9446130033</v>
       </c>
       <c r="N3" t="n">
-        <v>12988.5682709979</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>158092.382474262</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="D4" t="n">
-        <v>169218.7486993413</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>50223.09848921098</v>
+        <v>52352.49019908697</v>
       </c>
       <c r="F4" t="n">
-        <v>52100.23440139421</v>
+        <v>52352.49019908698</v>
       </c>
       <c r="G4" t="n">
-        <v>52100.23440139421</v>
+        <v>52352.49019908698</v>
       </c>
       <c r="H4" t="n">
-        <v>52100.23440139421</v>
+        <v>52352.49019908698</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
@@ -26442,22 +26442,22 @@
         <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
+        <v>54561.82510962276</v>
+      </c>
+      <c r="L4" t="n">
         <v>54561.82510962275</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>54561.82510962276</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>54561.82510962277</v>
       </c>
-      <c r="N4" t="n">
-        <v>68372.72551926991</v>
-      </c>
       <c r="O4" t="n">
-        <v>68372.72551926989</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="P4" t="n">
-        <v>68372.72551926989</v>
+        <v>54561.82510962277</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814204</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>67347.76991009794</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>69472.38000445715</v>
+        <v>73519.34227764751</v>
       </c>
       <c r="F5" t="n">
-        <v>73039.9238166281</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73039.9238166281</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73039.9238166281</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-194257.5234891936</v>
+        <v>-233698.5302774044</v>
       </c>
       <c r="C6" t="n">
-        <v>-52066.22282948362</v>
+        <v>-38508.01822254965</v>
       </c>
       <c r="D6" t="n">
-        <v>-75990.15240231808</v>
+        <v>-21167.47384864364</v>
       </c>
       <c r="E6" t="n">
-        <v>-113407.4230629908</v>
+        <v>-98112.00450226698</v>
       </c>
       <c r="F6" t="n">
-        <v>46705.46809113778</v>
+        <v>63623.07070784724</v>
       </c>
       <c r="G6" t="n">
-        <v>63517.87036623796</v>
+        <v>63623.07070784727</v>
       </c>
       <c r="H6" t="n">
-        <v>63517.87036623793</v>
+        <v>63623.07070784727</v>
       </c>
       <c r="I6" t="n">
-        <v>44829.98186488473</v>
+        <v>46903.59036386955</v>
       </c>
       <c r="J6" t="n">
-        <v>-45722.93500889838</v>
+        <v>-95339.52348890464</v>
       </c>
       <c r="K6" t="n">
-        <v>65291.53033609182</v>
+        <v>51454.29742886454</v>
       </c>
       <c r="L6" t="n">
-        <v>32310.68527229485</v>
+        <v>65268.30599670918</v>
       </c>
       <c r="M6" t="n">
-        <v>-81247.84078816304</v>
+        <v>-69721.63861629413</v>
       </c>
       <c r="N6" t="n">
-        <v>44178.33644254564</v>
+        <v>65268.30599670915</v>
       </c>
       <c r="O6" t="n">
-        <v>57166.90471354351</v>
+        <v>65268.30599670915</v>
       </c>
       <c r="P6" t="n">
-        <v>57166.90471354357</v>
+        <v>65268.3059967092</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>554.6080577318739</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1142.637829020677</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
-        <v>1201.314536457699</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="G4" t="n">
-        <v>1201.314536457699</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="H4" t="n">
-        <v>1201.314536457699</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052064</v>
       </c>
       <c r="D4" t="n">
-        <v>130.3122002117696</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>588.029771288803</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="F4" t="n">
-        <v>58.67670743702206</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>76.94596692704636</v>
+        <v>69.06079487080592</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052064</v>
       </c>
       <c r="L4" t="n">
-        <v>130.3122002117696</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>588.029771288803</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052064</v>
       </c>
       <c r="L4" t="n">
-        <v>130.3122002117696</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>588.029771288803</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
-        <v>58.67670743702206</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>111.1117530257919</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27436,7 +27436,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27445,7 +27445,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>134.5155239257579</v>
       </c>
     </row>
     <row r="3">
@@ -27543,10 +27543,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>202.2622952476358</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>83.12698582872011</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>86.5576416575629</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>184.1472857104456</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.254829457195569</v>
-      </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,13 +27780,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>16.95431320586417</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>298.2998601569337</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27910,16 +27910,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.424934860119208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>26.33579611060378</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>127.3204656085031</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.8410568773362</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>37.02042229785366</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>613.8410568773363</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.47818213854612</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.4600735274589</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>478.8828999897185</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>554.6080577318739</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>554.6080577318739</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>106.7111812840086</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>87.81302121848896</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
-        <v>168.6446694656273</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1142.637829020677</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>860.0355415814533</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158828</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,7 +35653,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>9.595666553462252</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35817,7 +35817,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35890,7 +35890,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>9.595666553462252</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>9.595666553462252</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36282,16 +36282,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36759,19 +36759,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,10 +37230,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -37309,13 +37309,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37473,10 +37473,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37543,16 +37543,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,19 +37789,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497274</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960967</v>
       </c>
       <c r="L43" t="n">
-        <v>438.669934346789</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>480.360828703306</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343482</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,19 +38026,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497274</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348442</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>438.669934346789</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>480.360828703306</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
